--- a/MainTop/07.05.2025/Поставка по городам/3 Москва, МО и Дальние регионы.xlsx
+++ b/MainTop/07.05.2025/Поставка по городам/3 Москва, МО и Дальние регионы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>артикул</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка бабочка Ван Гог</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Соник Sonic</t>
   </si>
   <si>
     <t>Термонаклейка Весёлый енот выглядывает</t>
@@ -707,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1313,7 +1319,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1345,7 +1351,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1353,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1369,7 +1375,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1417,7 +1423,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1433,7 +1439,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1593,6 +1599,22 @@
         <v>111</v>
       </c>
       <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
         <v>1</v>
       </c>
     </row>
